--- a/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
+++ b/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Event_ID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Event_ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Event_ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Event_ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
+++ b/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Event_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Event_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Event_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
+++ b/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>お客様講師</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 平岡 大祐</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1412,17 +1412,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>10-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>お客様講演</t>
+          <t>iPaaS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Think 2024およびTechXchange 2024 フィードバック</t>
+          <t>進化するIBM iPaaS、ニューフェースを迎えてHybrid iPaaSへ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1432,13 +1432,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2F 華しずか</t>
+          <t>4F 平安</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>今年海外で開催されたIBMのメインイベントであるThink 2024とTechXchange 2024のフィードバックセッションです。
-生成形AIを中心としたIBMの戦略と最新のテクノロジーを紹介します。またそのような最新テクノロジーに取り組む技術者の動向を含めて、イベントの雰囲気を肌で感じ取っていただけるセッションです。</t>
+          <t>本セッションでは、新たにIBMの仲間となったwebMethodsを活用し、多様なデータを手軽に連携するiPaaS(Integration Platform as a Service)の価値を紹介します。ビジネスに役立つAIのためにはオンプレミスかクラウドかを問わず、多様な環境に散在するデータを柔軟に連携する必要があります。IBMが目指すHybrid iPaaSとは何なのか、その魅力に迫ります。*当セッションは軽食を食べながら受講いただけます。</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1448,7 +1447,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 TBD TBD TBD</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automation事業部 プリンシパル・ブランド・セールス・スペシャリスト 早川 ゆき</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1460,17 +1459,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>10-2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>お客様講演</t>
+          <t>iPaaS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>エッジAIセンシングプラットフォームとMaximo/TRIRIGAによる業務スペース活用効率化</t>
+          <t>iPaaSで今すぐ始める、手軽なITモダナイゼーション</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1480,12 +1479,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2F 華しずか</t>
+          <t>4F 平安</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>快適な職場環境は従業員の生産性や満足度向上に貢献するものであり、無駄な専有状況や過剰な混雑はそれを妨げる課題であり、不動産コストにも影響します。この課題解決に貢献するソニー製のエッジAIセンシングプラットフォームとMaximo Monitor/TRIRIGAによる共創ソリューションをご紹介するとともに、本ソリューションにおける技術的な特徴についてご説明します。</t>
+          <t>iPaaS(Integration Platform as a Service)を活用して、今すぐ始められる手軽なITモダナイゼーションを実現しませんか。webMethodsにより、コンテナ技術やAI時代に必要なITモダナイズを実現させることで、柔軟でスケーラブルなシステムを短期間で構築することが可能です。業務効率を飛躍的に向上させ、競争力を強化することも可能です。デモを通じて、迅速かつ確実なデジタル・トランスフォーメーションの方法を具体的にご説明いたします。</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1495,7 +1494,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Sustainabilityテクニカル・スペシャリスト 今井 悠, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 アカウント・テクニカル・リーダー 今関 俊行</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automation事業部 シニア・ソリューション・アーキテクト 小野 奈海</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1507,7 +1506,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1517,12 +1516,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>三菱UFJ銀行の勘定系モダナイゼーション事例</t>
+          <t>Think 2024およびTechXchange 2024 フィードバック</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>12:00-12:40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1532,7 +1531,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>三菱UFJ銀行の勘定系システムは長年稼働する中で、チャネル拡大や商品・サービス追加などに既存プログラムを大幅に変更することなく継ぎ接ぎ対応をした結果、複雑化・肥大化が進みました。当課題解消のため、メインフレームとオープン基盤を適材適所で利用する“ハイブリッドアーキテクチャ・モダナイゼーション”を実践中です。本セッションにて、オープン基盤上で再構築する“勘定系フロント”の概要についてご紹介します。</t>
+          <t>今年海外で開催されたIBMのメインイベントであるThink 2024とTechXchange 2024のフィードバックセッションです。生成形AIを中心としたIBMの戦略と最新のテクノロジーを紹介します。またそのような最新テクノロジーに取り組む技術者の動向を含めて、イベントの雰囲気を肌で感じ取っていただけるセッションです。</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1542,7 +1541,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 アカウント・テクニカル・リーダー 奥野 将嘉</t>
+          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 執行役員 野波 衆太郎, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 クライアント・エンジニアリング事業部 クライアント・エンジニアリング・ソリューション・アーキテクト 野村 幸平</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1554,7 +1553,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1564,12 +1563,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>関西電力流 FinOps(クラウドコスト最適化)の実践</t>
+          <t>エッジAIセンシングプラットフォームとMaximo/TRIRIGAによる業務スペース活用効率化</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>13:00-13:40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1579,7 +1578,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>関西電力グループは、お客さまと社会に新しい価値をお届けするため、エネルギー分野にとどまらず、日々進化するテクノロジーをいち早く取り入れ、次代をつくりだす企業を目指しています。さらなるクラウドの活用や、パフォーマンス維持とリソース最適利用の両立にはクラウドリソースのデータ可視化が必要でした。CCoEとして取り組んでいるIBM Turbonomicを活用したFinOps実践活動についてお話しします。</t>
+          <t>快適な職場環境は従業員の生産性や満足度向上に貢献するものであり、無駄な専有状況や過剰な混雑はそれを妨げる課題であり、不動産コストにも影響します。この課題解決に貢献するソニー製のエッジAIセンシングプラットフォームとMaximo Monitor/TRIRIGAによる共創ソリューションをご紹介するとともに、本ソリューションにおける技術的な特徴についてご説明します。</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1589,7 +1588,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>お客様講師</t>
+          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 サステナビリティ・ソフトウェア テクニカル・スペシャリスト 今井 悠, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 アカウント・テクニカル・リーダー 今関 俊行</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1601,7 +1600,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1611,12 +1610,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DXのためのデータ活用基盤</t>
+          <t>三菱UFJ銀行の勘定系モダナイゼーション事例</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>14:00-14:40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1626,7 +1625,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>かんぽ生命ではDXのためのシステム基盤整備を進めています。この取り組みの中から、基幹系データへの効率的なアクセスの実現、全社的な分析環境の整備、AI活用等今後の展望についてご紹介します。</t>
+          <t>三菱UFJ銀行の勘定系システムは長年稼働する中で、チャネル拡大や商品・サービス追加などに既存プログラムを大幅に変更することなく継ぎ接ぎ対応をした結果、複雑化・肥大化が進みました。当課題解消のため、メインフレームとオープン基盤を適材適所で利用する“ハイブリッドアーキテクチャ・モダナイゼーション”を実践中です。本セッションにて、オープン基盤上で再構築する“勘定系フロント”の概要についてご紹介します。</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1636,7 +1635,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>お客様講師</t>
+          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 アカウント・テクニカル・リーダー 奥野 将嘉</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1648,7 +1647,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1658,12 +1657,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>生成AI×データ分析がUXの解像度を上げる</t>
+          <t>関西電力流 FinOps(クラウドコスト最適化)の実践</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:00-17:40</t>
+          <t>15:00-15:40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1673,9 +1672,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>生成AIは、テキスト分析にもブレイクスルーをもたらし、従来は手間を要した分析を、すぐに・容易に行うことが出来るようになりました。
-近年生成AIの陰に隠れがちな機械学習・データ分析の技術は依然として重要であるだけでなく、生成AIによるテキスト分析と併用することで、CX,EX等、UXのより深い調査を可能にします。
-社内調査で試みたデータ分析事例を元に、生成AI×データ分析によるUX理解の試み・展望をご紹介します。</t>
+          <t>関西電力グループは、お客さまと社会に新しい価値をお届けするため、エネルギー分野にとどまらず、日々進化するテクノロジーをいち早く取り入れ、次代をつくりだす企業を目指しています。さらなるクラウドの活用や、パフォーマンス維持とリソース最適利用の両立にはクラウドリソースのデータ可視化が必要でした。CCoEとして取り組んでいるIBM Turbonomicを活用したFinOps実践活動についてお話しします。</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1697,32 +1694,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>お客様講演</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AI が実現するランサムウェア脅威の検知とデータ・マイグレーション</t>
+          <t xml:space="preserve"> DXのためのデータ活用基盤</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>16:00-16:40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3F シリウス</t>
+          <t>2F 華しずか</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ランサムウェア攻撃を受けた場合、如何に迅速な復旧を実現できるかがビジネスの生命線となっています。ストレージに書き込まれたデータから改変不可のコピー（スナップショット）を自動的に作成したうえで、AIがランサムウェア脅威を検知するデモをします。また、複数のストレージ間で容量や I/O 負荷を AI 予測に基づき平準化を可能とする機能を用いた新たな運用を提案します。</t>
+          <t>かんぽ生命ではDXのためのシステム基盤整備を進めています。この取り組みの中から、基幹系データへの効率的なアクセスの実現、全社的な分析環境の整備、AI活用等今後の展望についてご紹介します。</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1732,7 +1729,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 松原 圭吾</t>
+          <t>お客様講師, お客様講師</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1744,32 +1741,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>2-6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>お客様講演</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>将来を見据えた次世代AI/分析向けストレージ基盤とは</t>
+          <t>生成AI×データ分析がUXの解像度を上げる</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13:00-13:40</t>
+          <t>17:00-17:40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3F シリウス</t>
+          <t>2F 華しずか</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>「AI 利活用の推進」、「仮想マシン環境の行く末」、「莫大なデータの保管コスト増」などのお悩みを解決する次世代プラットフォームをご紹介します。単純なインフラ更改ではなく、GPU のパフォーマンスを最大化するストレージ、仮想マシンとコンテナの統合プラットフォームなど、真の次世代インフラを追い求めましょう。</t>
+          <t>生成AIは、テキスト分析にもブレイクスルーをもたらし、従来は手間を要した分析を、すぐに・容易に行うことが出来るようになりました。近年生成AIの陰に隠れがちな機械学習・データ分析の技術は依然として重要であるだけでなく、生成AIによるテキスト分析と併用することで、CX,EX等、UXのより深い調査を可能にします。社内調査で試みたデータ分析事例を元に、生成AI×データ分析によるUX理解の試み・展望をご紹介します。</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1779,7 +1776,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 田中 裕之, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 吉岡 秀</t>
+          <t>お客様講師</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1791,22 +1788,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>オンプレミス/エッジAIで使えるIBM Powerの最新テクノロジーを体感しよう</t>
+          <t>AI が実現するランサムウェア脅威の検知とデータ・マイグレーション</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>12:00-12:40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1816,7 +1813,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>どこにあってもAIが利用できるという状況が実現されつつあり、オンプレミスやエッジでの利用を検討するケースが増えてきています。その際、プロジェクトを成功裡に進めるために、コストパフォーマンスの良い推論環境を、セキュアに迅速に展開することが重要な検討項目になります。IBM PowerとHugging FaceやRed Hat AIの組み合わせを活用して作る、フットプリントの小さいAI推論環境の構築や活用例を事例やデモを通じて紹介します。</t>
+          <t>ランサムウェア攻撃を受けた場合、如何に迅速な復旧を実現できるかがビジネスの生命線となっています。ストレージに書き込まれたデータから改変不可のコピー（スナップショット）を自動的に作成したうえで、AIがランサムウェア脅威を検知するデモをします。また、複数のストレージ間で容量や I/O 負荷を AI 予測に基づき平準化を可能とする機能を用いた新たな運用を提案します。</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1826,7 +1823,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 伊東 大地</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 松原 圭吾</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1838,22 +1835,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>“生成AI × IBM i” - IBM i 開発方法を今、さくっとアップデートしよう</t>
+          <t>将来を見据えた次世代AI/分析向けストレージ基盤とは</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>13:00-13:40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1863,10 +1860,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>昨今IBM i Merlin、RDi、VSCode開発などIBM i 開発環境はどんどん進化しています。
-さらにAIを用いることで、開発環境だけでなく、開発方法自体も進化していることをご存知でしょうか。
-本セッションでは、新機能であるコード・アシスタントの紹介および、IBM i 環境で、RPGのコード生成等、生産性をあげる新しい開発方法をデモンストレーションを通じてご説明します。
-「簡単に、素早く、快適なIBM i の開発方法にアップデートする」第一歩のセッションです。ぜひご参加ください。</t>
+          <t>「AI 利活用の推進」、「仮想マシン環境の行く末」、「莫大なデータの保管コスト増」などのお悩みを解決する次世代プラットフォームをご紹介します。単純なインフラ更改ではなく、GPU のパフォーマンスを最大化するストレージ、仮想マシンとコンテナの統合プラットフォームなど、真の次世代インフラを追い求めましょう。</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1876,7 +1870,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 古閑 さくら, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 肥沼 沙織</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 田中 裕之, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 吉岡 秀</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1888,22 +1882,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mainframe</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>メインフレームとAI技術 - 課題解決の新たなアプローチ</t>
+          <t>オンプレミス/エッジAIで使えるIBM Powerの最新テクノロジーを体感しよう</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>14:00-14:40</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1913,7 +1907,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>IBMメインフレームは、生誕60周年を迎えた今日においても、お客様の基幹業務を支える事はもちろんさらに活用の幅を広げています。一方で長期に渡り稼働するメインフレームならではの課題も存在します。その課題は最新のAI技術を活用して解決することが可能です。当セッションでは、メインフレーム資産の活用や運用に取り入れられているAI技術や製品が登場した背景と狙いについて、わかりやすく解説します。</t>
+          <t>どこにあってもAIが利用できるという状況が実現されつつあり、オンプレミスやエッジでの利用を検討するケースが増えてきています。その際、プロジェクトを成功裡に進めるために、コストパフォーマンスの良い推論環境を、セキュアに迅速に展開することが重要な検討項目になります。IBM PowerとHugging FaceやRed Hat AIの組み合わせを活用して作る、フットプリントの小さいAI推論環境の構築や活用例を事例やデモを通じて紹介します。</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1923,7 +1917,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 竹吉 俊輔</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 伊東 大地</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1935,22 +1929,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mainframe</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>メインフレーム・モダナイゼーションを加速するAI活用術</t>
+          <t>“生成AI × IBM i” - IBM i 開発方法を今、さくっとアップデートしよう</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17:00-17:40</t>
+          <t>15:00-15:40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1960,7 +1954,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AIを賢く活用してメインフレーム・モダナイゼーションを実現しませんか。より身近になったAI技術はこれからの我々の働き方に様々な選択肢を与え、スキル育成や生産性向上の観点で大きな影響を与えます。今まで以上にモダナイゼーションを加速させるために、今話題のメインフレーム・アプリケーション開発に生成AIを活用できる「IBM watsonx Code Assistant for Z」を中心に、デモを交えてご紹介します。</t>
+          <t>昨今IBM i Merlin、RDi、VSCode開発などIBM i 開発環境はどんどん進化しています。さらにAIを用いることで、開発環境だけでなく、開発方法自体も進化していることをご存知でしょうか。本セッションでは、新機能であるコード・アシスタントの紹介および、IBM i 環境で、RPGのコード生成等、生産性をあげる新しい開発方法をデモンストレーションを通じてご説明します。「簡単に、素早く、快適なIBM i の開発方法にアップデートする」第一歩のセッションです。ぜひご参加ください。</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1970,7 +1964,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 寺村 美千賀, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 三上 鉉人</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 古閑 さくら, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 肥沼 沙織</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1982,32 +1976,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cloud</t>
+          <t>Mainframe</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>watsonxと繋がるIBM Cloudのあの手この手</t>
+          <t>メインフレームとAI技術 - 課題解決の新たなアプローチ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>16:00-16:40</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3F オリオン</t>
+          <t>3F シリウス</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>プロンプトによる生成AI活用からRetrieval-Augmented Generation(RAG)を用いた知識探索、モデル改善を目指すファイン・チューニング等、watsonxを利用してみたいお客様必見です。そもそもwatsonxとアプリケーションを繋げるために、どんなIBM Cloud構成が取れるかを解説します。なるべく安価な構成にするには、セキュアな通信を保つには、安定稼働を実現するには、など様々な構成を一挙にご紹介します。</t>
+          <t>IBMメインフレームは、生誕60周年を迎えた今日においても、お客様の基幹業務を支える事はもちろんさらに活用の幅を広げています。一方で長期に渡り稼働するメインフレームならではの課題も存在します。その課題は最新のAI技術を活用して解決することが可能です。当セッションでは、メインフレーム資産の活用や運用に取り入れられているAI技術や製品が登場した背景と狙いについて、わかりやすく解説します。</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2017,8 +2011,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 
-Cloud Platformテクニカル・スペシャリスト 片岡 弘貴</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 竹吉 俊輔</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2030,32 +2023,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cloud</t>
+          <t>Mainframe</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>どうするVMware、IBM Cloudを用いた最適化戦略</t>
+          <t>メインフレーム・モダナイゼーションを加速するAI活用術</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13:00-13:40</t>
+          <t>17:00-17:40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3F オリオン</t>
+          <t>3F シリウス</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>年初から業界を賑わせているBroadcom社によるVMwareライセンスポリシーの変更に伴い、現行VMware環境上で動くワークロードのあるべき姿に対して改めて検討をされている企業は多いと思われます。本セッションでは、IBM Cloudが提供する豊富な選択肢を改めて整理し、コスト・リスク・柔軟性の観点から今後のアーキテクチャーを描く上で役立つソリューションをご紹介します。</t>
+          <t>AIを賢く活用してメインフレーム・モダナイゼーションを実現しませんか。より身近になったAI技術はこれからの我々の働き方に様々な選択肢を与え、スキル育成や生産性向上の観点で大きな影響を与えます。今まで以上にモダナイゼーションを加速させるために、今話題のメインフレーム・アプリケーション開発に生成AIを活用できる「IBM watsonx Code Assistant for Z」を中心に、デモを交えてご紹介します。</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2065,9 +2058,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 
-Cloud Platformテクニカル・スペシャリスト 安田 忍, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 
-Cloud Platformテクニカル・スペシャリスト 鶴田 萌花</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 寺村 美千賀, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 三上 鉉人</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2079,22 +2070,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cloud</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>量子コンピューティング時代にむけて、今から取り組むべきセキュリティー対策</t>
+          <t>watsonxと繋がるIBM Cloudのあの手この手</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>12:00-12:40</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2104,18 +2095,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>量子技術は企業に計り知れないほど大きな利益をもたらすポテンシャルを秘めており、社会に大きな影響を及ぼすと考えられています。その反面、現在のセキュリティー対策の根幹を支えている暗号技術に影響を及ぼす可能性があると言われています。
-このセッションでは、国内外の先行事例をもとに、企業が取るべき耐量子コンピューティング戦略とセキュリティー対策の勘所に関してご説明します。</t>
+          <t>プロンプトによる生成AI活用からRetrieval-Augmented Generation(RAG)を用いた知識探索、モデル改善を目指すファイン・チューニング等、watsonxを利用してみたいお客様必見です。そもそもwatsonxとアプリケーションを繋げるために、どんなIBM Cloud構成が取れるかを解説します。なるべく安価な構成にするには、セキュアな通信を保つには、安定稼働を実現するには、など様々な構成を一挙にご紹介します。</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>中級者</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 Strategy Consulting Partner 西林 泰如</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部  Cloud Platformテクニカル・スペシャリスト 片岡 弘貴</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2127,22 +2117,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cloud</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>量子コンピューティング時代にむけて、今から取り組むべきセキュリティー対策</t>
+          <t>どうするVMware、IBM Cloudを用いた最適化戦略</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>13:00-13:40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2152,18 +2142,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>量子技術は企業に計り知れないほど大きな利益をもたらすポテンシャルを秘めており、社会に大きな影響を及ぼすと考えられています。その反面、現在のセキュリティー対策の根幹を支えている暗号技術に影響を及ぼす可能性があると言われています。このセッションでは、国内外の先行事例をもとに、企業が取るべき耐量子コンピューティング戦略とセキュリティー対策の勘所に関してご説明します。</t>
+          <t>年初から業界を賑わせているBroadcom社によるVMwareライセンスポリシーの変更に伴い、現行VMware環境上で動くワークロードのあるべき姿に対して改めて検討をされている企業は多いと思われます。本セッションでは、IBM Cloudが提供する豊富な選択肢を改めて整理し、コスト・リスク・柔軟性の観点から今後のアーキテクチャーを描く上で役立つソリューションをご紹介します。</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>中級者</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 コンサルティング事業本部 サイバーセキュリティー・サービス
-技術理事 大西 克美</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部  Cloud Platformテクニカル・スペシャリスト 安田 忍, 日本アイ・ビー・エム株式会社 テクノロジー事業本部  Cloud Platformテクニカル・スペシャリスト 鶴田 萌花</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2175,7 +2164,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2185,12 +2174,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>生成AI時代に考えるべきデータ・セキュリティー</t>
+          <t>量子コンピューティング時代にむけて、今から取り組むべきセキュリティー対策</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>14:00-14:40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2200,17 +2189,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>大規模言語モデルの登場や自然言語処理の進歩により、ビジネスにおける生成AIの活用が進んでおります。本セッションでは、データ・セキュリティーの観点から生成AI時代におけるセキュリティー課題を分析し、管理が必要となる項目を整理させていただきます。併せて最新のTechnologyでこの領域における課題をどのように解決していくのかをご説明します。</t>
+          <t>量子技術は企業に計り知れないほど大きな利益をもたらすポテンシャルを秘めており、社会に大きな影響を及ぼすと考えられています。その反面、現在のセキュリティー対策の根幹を支えている暗号技術に影響を及ぼす可能性があると言われています。このセッションでは、国内外の先行事例をもとに、企業が取るべき耐量子コンピューティング戦略とセキュリティー対策の勘所に関してご説明します。</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>中級者</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 セキュリティー・テクニカル・スペシャリスト 吉田 剛, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 セキュリティー・テクニカル・スペシャリスト 清水 颯太</t>
+          <t>日本アイ・ビー・エム株式会社 コンサルティング事業本部 サイバーセキュリティー・サービス 技術理事 大西 克美, 日本アイ・ビー・エム株式会社 Strategy Consulting Partner 西林 泰如</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2222,22 +2211,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sustainability Software</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Maximoと生成AIが切り拓く新たな可能性</t>
+          <t>生成AI時代に考えるべきデータ・セキュリティー</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>15:00-15:40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2247,7 +2236,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>本セッションでは、企業資産管理ソリューションの効果的な利用方法とこれまであった課題、特に現場の手間がかかり使いこなせない問題、そのギャップを埋める生成AIの活用方法を紹介します。具体的な生成AIの実例やEAM（企業資産管理）でのデータ管理・活用、APM（資産パフォーマンス管理）における生成AIのユースケースも取り上げます。ソリューションの効果的な活用と生成AIによる可能性について深く掘り下げるセッションです。</t>
+          <t>大規模言語モデルの登場や自然言語処理の進歩により、ビジネスにおける生成AIの活用が進んでおります。本セッションでは、データ・セキュリティーの観点から生成AI時代におけるセキュリティー課題を分析し、管理が必要となる項目を整理させていただきます。併せて最新のTechnologyでこの領域における課題をどのように解決していくのかをご説明します。</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2257,8 +2246,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 Maximoエキスパート・ラボ アプリケーション・コンサルタント 横山 智史, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 
-クライアント・エンジニアリング事業部 AI エンジニア 藤井 涼平, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Sustainabilityテクニカル・スペシャリスト 今井 悠</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 セキュリティー・テクニカル・スペシャリスト 吉田 剛, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 セキュリティー・テクニカル・スペシャリスト 清水 颯太</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2290,7 +2278,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4F オリオン</t>
+          <t>3F オリオン</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2305,7 +2293,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Sustainabilityテクニカル・スペシャリスト 藤 泉也</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Maximoエキスパート・ラボ デリバリー・コンサルタント 横山 智史, 日本アイ・ビー・エム株式会社 テクノロジー事業本部  クライアント・エンジニアリング  AI エンジニア 藤井 涼平, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 サステナビリティ・ソフトウェア テクニカル・スペシャリスト 今井 悠</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2540,7 +2528,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 坂本 康輔</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 坂本 康輔, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 西澤 賢吾</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2577,8 +2565,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>生成AIによる業務効率化の模索・実践が進んでいます。汎用ツールによる個人での業務改善だけでなく、業務に特化したツールの活用がさらなる生産性向上につながります。
-本セッションでは、顧客サービス、アプリケーション最新化、ビジネス・データ分析の各領域での対話型UIを使ったAIによる業務のサポート・自動化をデモを交えてご紹介します。</t>
+          <t>生成AIによる業務効率化の模索・実践が進んでいます。汎用ツールによる個人での業務改善だけでなく、業務に特化したツールの活用がさらなる生産性向上につながります。本セッションでは、顧客サービス、アプリケーション最新化、ビジネス・データ分析の各領域での対話型UIを使ったAIによる業務のサポート・自動化をデモを交えてご紹介します。</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2892,7 +2879,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>高信頼/コスト最適なOracle Database基盤のためのLinuxONE活用</t>
+          <t>LinuxONEによるOracle Database基盤のアジリティ/コスト効率向上</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2907,8 +2894,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>日立製作所ではお客様のシステムマイグレーション・ITモダナイゼーションを加速するソリューションを展開しております。
-このセッションでは、特に課題となる基幹系データベース基盤の移行に対して、LinuxONEと日立ストレージVSPを組合わせた高信頼性とコスト最適化を両立するOracle Databaseベストプラクティス構成と、それを実現するソリューションおよび検証結果をご紹介します。</t>
+          <t>日立製作所ではお客様のシステムマイグレーション・ITモダナイゼーションを加速するソリューションを展開しております。このセッションでは、特に課題となる基幹系データベース基盤の移行に対して、LinuxONEと日立ストレージVSPを組合わせた高信頼性とコスト最適化を両立するOracle Databaseベストプラクティス構成と、それを実現するソリューションおよび検証結果をご紹介します。</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3237,9 +3223,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>生成AIの回答精度を向上させるために、自社内のデータを活用しませんか。
-このハンズオンでは、ベクトル・データーベースを使ったRAGの基本を学びます。
-データとAIのためのオープンなデータレイクハウス watsonx.dataに含まれるベクトル・データベース Milvusを使って、生成AIで新しいデータ探索を体験してみましょう。</t>
+          <t>生成AIの回答精度を向上させるために、自社内のデータを活用しませんか。このハンズオンでは、ベクトル・データーベースを使ったRAGの基本を学びます。データとAIのためのオープンなデータレイクハウス watsonx.dataに含まれるベクトル・データベース Milvusを使って、生成AIで新しいデータ探索を体験してみましょう。</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3333,9 +3317,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>多くの企業が生成AI・基盤モデルのビジネス活用を加速していく中、AIリスク管理の重要性も高まっています。
-watsonx.governanceは企業におけるAIライフサイクル管理を通して、信頼できるAIを実現するツールキットを提供します。
-本ハンズオンではwatsonx.governanceを用いたAIリスク管理の流れを体感いただけます。</t>
+          <t>多くの企業が生成AI・基盤モデルのビジネス活用を加速していく中、AIリスク管理の重要性も高まっています。watsonx.governanceは企業におけるAIライフサイクル管理を通して、信頼できるAIを実現するツールキットを提供します。本ハンズオンではwatsonx.governanceを用いたAIリスク管理の流れを体感いただけます。</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3832,27 +3814,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>9-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IBM Champion Tech Showcase 体感しよう、技術の進化 #1</t>
+          <t>Meet IBM Research #1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45-14:55</t>
+          <t>12:45-12:55</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>watsonx.aiとVision Pro連携事例</t>
+          <t>コンピューティングの未来を語ろう</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>このセッションは IBM watsonx.ai と Apple Vision Pro による空間コンピューティングの連携について具体的な手法をライブデモを交えてお伝えします。実践的な実装方法、参考になる注意点、試行錯誤のポイント、AI とデバイスの関係性で感じたことをお伝えします。</t>
+          <t>展示ブース「Meet IBM Research コンピューティングの未来を語ろう」でご案内している最先端テクノロジーの一端をご紹介します。（Meet IBM Research #2 と同じ内容になります。）</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3864,27 +3846,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IBM Champion Tech Showcase 体感しよう、技術の進化 #2</t>
+          <t>Meet IBM Research #2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:45-15:55</t>
+          <t>13:45-13:55</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Call for Code チャレンジ  watsonx.aiとTJBot zero  生成AIアシスタントをつくってみた</t>
+          <t>コンピューティングの未来を語ろう</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>このセッションは、社会問題解決を目指すグローバル・ハッカソン「Call for Code」の2024年テーマ「生成AI」に対応したプロジェクトを紹介します。紙型AIロボット「TJBot Zero」（Raspberry Pi 搭載）を生成AIのフロントエンドとして活用した実践的な応用方法と魅力を解説します。</t>
+          <t>展示ブース「Meet IBM Research コンピューティングの未来を語ろう」でご案内している最先端テクノロジーの一端をご紹介します。（Meet IBM Research #1 と同じ内容になります。）</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3896,27 +3878,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IBM Champion Tech Showcase 体感しよう、技術の進化 #3</t>
+          <t>IBM Champion Tech Showcase 体感しよう、技術の進化 #1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45-16:55</t>
+          <t>14:45-14:55</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Watson Discoveryだから実現できた、業務で使えるAI活用</t>
+          <t>watsonx.aiとVision Pro連携事例</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>業務で生成AIを利用する（=API利用)ためには、ユーザーの質問や指示に対する最適なドキュメントを検索によって抽出し、生成AIに渡す必要があります。ベクトルDBを勧める記事が多くありますが、精度が出にくいこともあります。一方、Watson Discoveryを使う私たちの製品は94%以上の評価を獲得しています。このセッションではデモを交え、Watson DiscoveryがRAGに向いている理由をお伝えします。</t>
+          <t>このセッションは IBM watsonx.ai と Apple Vision Pro による空間コンピューティングの連携について具体的な手法をライブデモを交えてお伝えします。実践的な実装方法、参考になる注意点、試行錯誤のポイント、AI とデバイスの関係性で感じたことをお伝えします。</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3928,27 +3910,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9-1</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Meet IBM Research #1</t>
+          <t>IBM Champion Tech Showcase 体感しよう、技術の進化 #2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:45-12:55</t>
+          <t>15:45-15:55</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>コンピューティングの未来を語ろう</t>
+          <t>Call for Code チャレンジ  watsonx.aiとTJBot zero  生成AIアシスタントをつくってみた</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>展示ブース「Meet IBM Research コンピューティングの未来を語ろう」でご案内している最先端テクノロジーの一端をご紹介します。（Meet IBM Research #2 と同じ内容になります。）</t>
+          <t>このセッションは、社会問題解決を目指すグローバル・ハッカソン「Call for Code」の2024年テーマ「生成AI」に対応したプロジェクトを紹介します。紙型AIロボット「TJBot Zero」（Raspberry Pi 搭載）を生成AIのフロントエンドとして活用した実践的な応用方法と魅力を解説します。</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3960,27 +3942,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Meet IBM Research #2</t>
+          <t>IBM Champion Tech Showcase 体感しよう、技術の進化 #3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:45-13:55</t>
+          <t>16:45-16:55</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>コンピューティングの未来を語ろう</t>
+          <t>Watson Discoveryだから実現できた、業務で使えるAI活用</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>展示ブース「Meet IBM Research コンピューティングの未来を語ろう」でご案内している最先端テクノロジーの一端をご紹介します。（Meet IBM Research #1 と同じ内容になります。）</t>
+          <t>業務で生成AIを利用する（=API利用)ためには、ユーザーの質問や指示に対する最適なドキュメントを検索によって抽出し、生成AIに渡す必要があります。ベクトルDBを勧める記事が多くありますが、精度が出にくいこともあります。一方、Watson Discoveryを使う私たちの製品は94%以上の評価を獲得しています。このセッションではデモを交え、Watson DiscoveryがRAGに向いている理由をお伝えします。</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">

--- a/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
+++ b/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
@@ -1072,7 +1072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1098,30 +1098,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>時間</t>
+          <t>会場</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>会場</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>レベル</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>レベル</t>
+          <t>講師</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>講師</t>
+          <t>開始時刻</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>終了時刻</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
@@ -1145,30 +1150,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>2F 華さそい</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2F 華さそい</t>
+          <t>IBM Championの方向けのランチセッションです。IBM Championの方のみ申し込み可能です。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>IBM Championの方向けのランチセッションです。IBM Championの方のみ申し込み可能です。</t>
+          <t>上級者</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>上級者</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 平岡 大祐</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 平岡 大祐</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1192,30 +1202,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13:00-13:40</t>
+          <t>2F 華しらべ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2F 華しらべ</t>
+          <t>IBM Championの方向けのセッションです。IBM Championの方のみ申し込み可能です。</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IBM Championの方向けのセッションです。IBM Championの方のみ申し込み可能です。</t>
+          <t>上級者</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>上級者</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 平岡 大祐</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 平岡 大祐</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1239,30 +1254,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>2F 華しらべ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2F 華しらべ</t>
+          <t>もはやあらゆる業種・業界の垣根を横断して「いかにして実業務に生成AI/LLMを活用し、自社をAI-native Enterpriseに変革させるのか」は避けて通れない経営アジェンダです。その変革の土台となるIT Platformのあるべき姿とは何なのでしょうか。Red Hat OpenShiftはその問いに対する一つの有力な解であり、その事をDemoを通して皆様と体感していきます。</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>もはやあらゆる業種・業界の垣根を横断して「いかにして実業務に生成AI/LLMを活用し、自社をAI-native Enterpriseに変革させるのか」は避けて通れない経営アジェンダです。その変革の土台となるIT Platformのあるべき姿とは何なのでしょうか。Red Hat OpenShiftはその問いに対する一つの有力な解であり、その事をDemoを通して皆様と体感していきます。</t>
+          <t>中級者</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>中級者</t>
+          <t>お客様講師</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>お客様講師</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1286,30 +1306,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>2F 華しらべ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2F 華しらべ</t>
+          <t>IBMは100超の量子ビット規模において量子コンピューターが古典アプローチを超える結果を導き出せることを初めて実証し、今、まさに、私たちは、量子ユーティリティー時代の中にいます。より大規模で複雑な問題を量子回路にマッピングし、さらに信頼性の高い結果が得られるよう、オープンソースの量子ソフトウェア開発キットQiskitも機能拡張されています。当セッションでは、量子コンピューティングでどのような問題が解決できるのか、Qiskit 1.0を使ってどのように量子プログラムを構築、最適化していくかを、IBM Research研究員が事例とともに分かりやすく解説します。</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IBMは100超の量子ビット規模において量子コンピューターが古典アプローチを超える結果を導き出せることを初めて実証し、今、まさに、私たちは、量子ユーティリティー時代の中にいます。より大規模で複雑な問題を量子回路にマッピングし、さらに信頼性の高い結果が得られるよう、オープンソースの量子ソフトウェア開発キットQiskitも機能拡張されています。当セッションでは、量子コンピューティングでどのような問題が解決できるのか、Qiskit 1.0を使ってどのように量子プログラムを構築、最適化していくかを、IBM Research研究員が事例とともに分かりやすく解説します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 IBM Quantum シニア・リサーチ・サイエンティスト 髙橋 ひとみ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 IBM Quantum シニア・リサーチ・サイエンティスト 髙橋 ひとみ</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1333,30 +1358,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>2F 華しらべ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2F 華しらべ</t>
+          <t>デジタル変革において、生成AIの活用はもはや当然の要件となっています。個々の業務における生成AI活用のためのPoCは盛んに実施されてきましたが、PoCを超えて実用段階への移行を加速するために必要なことはなんでしょうか。IBMが考えるデジタル変革を加速する実用的なビジネスのためのAIソリューションをご紹介します。</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>デジタル変革において、生成AIの活用はもはや当然の要件となっています。個々の業務における生成AI活用のためのPoCは盛んに実施されてきましたが、PoCを超えて実用段階への移行を加速するために必要なことはなんでしょうか。IBMが考えるデジタル変革を加速する実用的なビジネスのためのAIソリューションをご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 IBMコンサルティング事業本部 ビジネス・トランスフォーメーション・サービスCTO IBMフェロー 倉島 菜つ美</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 IBMコンサルティング事業本部 ビジネス・トランスフォーメーション・サービスCTO IBMフェロー 倉島 菜つ美</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1380,30 +1410,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17:00-17:40</t>
+          <t>2F 華しらべ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2F 華しらべ</t>
+          <t>IT部門こそAIを使って変革したい・・そのような声にお応えするためにIBMがご提供している、IT変革のためのAIソリューションをご紹介いたします。AIによるコード生成やテスト自動化、IT運用高度化といったAIユースケースごとのソリューションを解説いたしますので、各企業のAIによるIT変革のために参考にしてください。</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>IT部門こそAIを使って変革したい・・そのような声にお応えするためにIBMがご提供している、IT変革のためのAIソリューションをご紹介いたします。AIによるコード生成やテスト自動化、IT運用高度化といったAIユースケースごとのソリューションを解説いたしますので、各企業のAIによるIT変革のために参考にしてください。</t>
+          <t>中級者</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>中級者</t>
+          <t>日本アイ・ビー・エム株式会社 コンサルティング事業本部 CTO 執行役員 IBMフェロー 二上 哲也</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 コンサルティング事業本部 CTO 執行役員 IBMフェロー 二上 哲也</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1427,30 +1462,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>4F 平安</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4F 平安</t>
+          <t>本セッションでは、新たにIBMの仲間となったwebMethodsを活用し、多様なデータを手軽に連携するiPaaS(Integration Platform as a Service)の価値を紹介します。ビジネスに役立つAIのためにはオンプレミスかクラウドかを問わず、多様な環境に散在するデータを柔軟に連携する必要があります。IBMが目指すHybrid iPaaSとは何なのか、その魅力に迫ります。*当セッションは軽食を食べながら受講いただけます。</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>本セッションでは、新たにIBMの仲間となったwebMethodsを活用し、多様なデータを手軽に連携するiPaaS(Integration Platform as a Service)の価値を紹介します。ビジネスに役立つAIのためにはオンプレミスかクラウドかを問わず、多様な環境に散在するデータを柔軟に連携する必要があります。IBMが目指すHybrid iPaaSとは何なのか、その魅力に迫ります。*当セッションは軽食を食べながら受講いただけます。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automation事業部 プリンシパル・ブランド・セールス・スペシャリスト 早川 ゆき</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automation事業部 プリンシパル・ブランド・セールス・スペシャリスト 早川 ゆき</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1474,30 +1514,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13:00-13:40</t>
+          <t>4F 平安</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4F 平安</t>
+          <t>iPaaS(Integration Platform as a Service)を活用して、今すぐ始められる手軽なITモダナイゼーションを実現しませんか。webMethodsにより、コンテナ技術やAI時代に必要なITモダナイズを実現させることで、柔軟でスケーラブルなシステムを短期間で構築することが可能です。業務効率を飛躍的に向上させ、競争力を強化することも可能です。デモを通じて、迅速かつ確実なデジタル・トランスフォーメーションの方法を具体的にご説明いたします。</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>iPaaS(Integration Platform as a Service)を活用して、今すぐ始められる手軽なITモダナイゼーションを実現しませんか。webMethodsにより、コンテナ技術やAI時代に必要なITモダナイズを実現させることで、柔軟でスケーラブルなシステムを短期間で構築することが可能です。業務効率を飛躍的に向上させ、競争力を強化することも可能です。デモを通じて、迅速かつ確実なデジタル・トランスフォーメーションの方法を具体的にご説明いたします。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automation事業部 シニア・ソリューション・アーキテクト 小野 奈海</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automation事業部 シニア・ソリューション・アーキテクト 小野 奈海</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1521,30 +1566,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>2F 華しずか</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2F 華しずか</t>
+          <t>今年海外で開催されたIBMのメインイベントであるThink 2024とTechXchange 2024のフィードバックセッションです。生成形AIを中心としたIBMの戦略と最新のテクノロジーを紹介します。またそのような最新テクノロジーに取り組む技術者の動向を含めて、イベントの雰囲気を肌で感じ取っていただけるセッションです。</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>今年海外で開催されたIBMのメインイベントであるThink 2024とTechXchange 2024のフィードバックセッションです。生成形AIを中心としたIBMの戦略と最新のテクノロジーを紹介します。またそのような最新テクノロジーに取り組む技術者の動向を含めて、イベントの雰囲気を肌で感じ取っていただけるセッションです。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 執行役員 野波 衆太郎, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 クライアント・エンジニアリング事業部 クライアント・エンジニアリング・ソリューション・アーキテクト 野村 幸平</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 執行役員 野波 衆太郎, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 クライアント・エンジニアリング事業部 クライアント・エンジニアリング・ソリューション・アーキテクト 野村 幸平</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1568,30 +1618,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00-13:40</t>
+          <t>2F 華しずか</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2F 華しずか</t>
+          <t>快適な職場環境は従業員の生産性や満足度向上に貢献するものであり、無駄な専有状況や過剰な混雑はそれを妨げる課題であり、不動産コストにも影響します。この課題解決に貢献するソニー製のエッジAIセンシングプラットフォームとMaximo Monitor/TRIRIGAによる共創ソリューションをご紹介するとともに、本ソリューションにおける技術的な特徴についてご説明します。</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>快適な職場環境は従業員の生産性や満足度向上に貢献するものであり、無駄な専有状況や過剰な混雑はそれを妨げる課題であり、不動産コストにも影響します。この課題解決に貢献するソニー製のエッジAIセンシングプラットフォームとMaximo Monitor/TRIRIGAによる共創ソリューションをご紹介するとともに、本ソリューションにおける技術的な特徴についてご説明します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 サステナビリティ・ソフトウェア テクニカル・スペシャリスト 今井 悠, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 アカウント・テクニカル・リーダー 今関 俊行</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 サステナビリティ・ソフトウェア テクニカル・スペシャリスト 今井 悠, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 アカウント・テクニカル・リーダー 今関 俊行</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1615,30 +1670,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>2F 華しずか</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2F 華しずか</t>
+          <t>三菱UFJ銀行の勘定系システムは長年稼働する中で、チャネル拡大や商品・サービス追加などに既存プログラムを大幅に変更することなく継ぎ接ぎ対応をした結果、複雑化・肥大化が進みました。当課題解消のため、メインフレームとオープン基盤を適材適所で利用する“ハイブリッドアーキテクチャ・モダナイゼーション”を実践中です。本セッションにて、オープン基盤上で再構築する“勘定系フロント”の概要についてご紹介します。</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>三菱UFJ銀行の勘定系システムは長年稼働する中で、チャネル拡大や商品・サービス追加などに既存プログラムを大幅に変更することなく継ぎ接ぎ対応をした結果、複雑化・肥大化が進みました。当課題解消のため、メインフレームとオープン基盤を適材適所で利用する“ハイブリッドアーキテクチャ・モダナイゼーション”を実践中です。本セッションにて、オープン基盤上で再構築する“勘定系フロント”の概要についてご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 アカウント・テクニカル・リーダー 奥野 将嘉</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 アカウント・テクニカル・リーダー 奥野 将嘉</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1662,30 +1722,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>2F 華しずか</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2F 華しずか</t>
+          <t>関西電力グループは、お客さまと社会に新しい価値をお届けするため、エネルギー分野にとどまらず、日々進化するテクノロジーをいち早く取り入れ、次代をつくりだす企業を目指しています。さらなるクラウドの活用や、パフォーマンス維持とリソース最適利用の両立にはクラウドリソースのデータ可視化が必要でした。CCoEとして取り組んでいるIBM Turbonomicを活用したFinOps実践活動についてお話しします。</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>関西電力グループは、お客さまと社会に新しい価値をお届けするため、エネルギー分野にとどまらず、日々進化するテクノロジーをいち早く取り入れ、次代をつくりだす企業を目指しています。さらなるクラウドの活用や、パフォーマンス維持とリソース最適利用の両立にはクラウドリソースのデータ可視化が必要でした。CCoEとして取り組んでいるIBM Turbonomicを活用したFinOps実践活動についてお話しします。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>お客様講師</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1709,30 +1774,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>2F 華しずか</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2F 華しずか</t>
+          <t>かんぽ生命ではDXのためのシステム基盤整備を進めています。この取り組みの中から、基幹系データへの効率的なアクセスの実現、全社的な分析環境の整備、AI活用等今後の展望についてご紹介します。</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>かんぽ生命ではDXのためのシステム基盤整備を進めています。この取り組みの中から、基幹系データへの効率的なアクセスの実現、全社的な分析環境の整備、AI活用等今後の展望についてご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師, お客様講師</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>お客様講師, お客様講師</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1756,30 +1826,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17:00-17:40</t>
+          <t>2F 華しずか</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2F 華しずか</t>
+          <t>生成AIは、テキスト分析にもブレイクスルーをもたらし、従来は手間を要した分析を、すぐに・容易に行うことが出来るようになりました。近年生成AIの陰に隠れがちな機械学習・データ分析の技術は依然として重要であるだけでなく、生成AIによるテキスト分析と併用することで、CX,EX等、UXのより深い調査を可能にします。社内調査で試みたデータ分析事例を元に、生成AI×データ分析によるUX理解の試み・展望をご紹介します。</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>生成AIは、テキスト分析にもブレイクスルーをもたらし、従来は手間を要した分析を、すぐに・容易に行うことが出来るようになりました。近年生成AIの陰に隠れがちな機械学習・データ分析の技術は依然として重要であるだけでなく、生成AIによるテキスト分析と併用することで、CX,EX等、UXのより深い調査を可能にします。社内調査で試みたデータ分析事例を元に、生成AI×データ分析によるUX理解の試み・展望をご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>お客様講師</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1803,30 +1878,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>3F シリウス</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3F シリウス</t>
+          <t>ランサムウェア攻撃を受けた場合、如何に迅速な復旧を実現できるかがビジネスの生命線となっています。ストレージに書き込まれたデータから改変不可のコピー（スナップショット）を自動的に作成したうえで、AIがランサムウェア脅威を検知するデモをします。また、複数のストレージ間で容量や I/O 負荷を AI 予測に基づき平準化を可能とする機能を用いた新たな運用を提案します。</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ランサムウェア攻撃を受けた場合、如何に迅速な復旧を実現できるかがビジネスの生命線となっています。ストレージに書き込まれたデータから改変不可のコピー（スナップショット）を自動的に作成したうえで、AIがランサムウェア脅威を検知するデモをします。また、複数のストレージ間で容量や I/O 負荷を AI 予測に基づき平準化を可能とする機能を用いた新たな運用を提案します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 松原 圭吾</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 松原 圭吾</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1850,30 +1930,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13:00-13:40</t>
+          <t>3F シリウス</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3F シリウス</t>
+          <t>「AI 利活用の推進」、「仮想マシン環境の行く末」、「莫大なデータの保管コスト増」などのお悩みを解決する次世代プラットフォームをご紹介します。単純なインフラ更改ではなく、GPU のパフォーマンスを最大化するストレージ、仮想マシンとコンテナの統合プラットフォームなど、真の次世代インフラを追い求めましょう。</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>「AI 利活用の推進」、「仮想マシン環境の行く末」、「莫大なデータの保管コスト増」などのお悩みを解決する次世代プラットフォームをご紹介します。単純なインフラ更改ではなく、GPU のパフォーマンスを最大化するストレージ、仮想マシンとコンテナの統合プラットフォームなど、真の次世代インフラを追い求めましょう。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 田中 裕之, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 吉岡 秀</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 田中 裕之, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 ストレージ・テクニカル・スペシャリスト 吉岡 秀</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1897,30 +1982,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>3F シリウス</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3F シリウス</t>
+          <t>どこにあってもAIが利用できるという状況が実現されつつあり、オンプレミスやエッジでの利用を検討するケースが増えてきています。その際、プロジェクトを成功裡に進めるために、コストパフォーマンスの良い推論環境を、セキュアに迅速に展開することが重要な検討項目になります。IBM PowerとHugging FaceやRed Hat AIの組み合わせを活用して作る、フットプリントの小さいAI推論環境の構築や活用例を事例やデモを通じて紹介します。</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>どこにあってもAIが利用できるという状況が実現されつつあり、オンプレミスやエッジでの利用を検討するケースが増えてきています。その際、プロジェクトを成功裡に進めるために、コストパフォーマンスの良い推論環境を、セキュアに迅速に展開することが重要な検討項目になります。IBM PowerとHugging FaceやRed Hat AIの組み合わせを活用して作る、フットプリントの小さいAI推論環境の構築や活用例を事例やデモを通じて紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 伊東 大地</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 伊東 大地</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1944,30 +2034,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>3F シリウス</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3F シリウス</t>
+          <t>昨今IBM i Merlin、RDi、VSCode開発などIBM i 開発環境はどんどん進化しています。さらにAIを用いることで、開発環境だけでなく、開発方法自体も進化していることをご存知でしょうか。本セッションでは、新機能であるコード・アシスタントの紹介および、IBM i 環境で、RPGのコード生成等、生産性をあげる新しい開発方法をデモンストレーションを通じてご説明します。「簡単に、素早く、快適なIBM i の開発方法にアップデートする」第一歩のセッションです。ぜひご参加ください。</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>昨今IBM i Merlin、RDi、VSCode開発などIBM i 開発環境はどんどん進化しています。さらにAIを用いることで、開発環境だけでなく、開発方法自体も進化していることをご存知でしょうか。本セッションでは、新機能であるコード・アシスタントの紹介および、IBM i 環境で、RPGのコード生成等、生産性をあげる新しい開発方法をデモンストレーションを通じてご説明します。「簡単に、素早く、快適なIBM i の開発方法にアップデートする」第一歩のセッションです。ぜひご参加ください。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 古閑 さくら, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 肥沼 沙織</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 古閑 さくら, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 IBM Powerテクニカル・スペシャリスト 肥沼 沙織</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -1991,30 +2086,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>3F シリウス</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3F シリウス</t>
+          <t>IBMメインフレームは、生誕60周年を迎えた今日においても、お客様の基幹業務を支える事はもちろんさらに活用の幅を広げています。一方で長期に渡り稼働するメインフレームならではの課題も存在します。その課題は最新のAI技術を活用して解決することが可能です。当セッションでは、メインフレーム資産の活用や運用に取り入れられているAI技術や製品が登場した背景と狙いについて、わかりやすく解説します。</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>IBMメインフレームは、生誕60周年を迎えた今日においても、お客様の基幹業務を支える事はもちろんさらに活用の幅を広げています。一方で長期に渡り稼働するメインフレームならではの課題も存在します。その課題は最新のAI技術を活用して解決することが可能です。当セッションでは、メインフレーム資産の活用や運用に取り入れられているAI技術や製品が登場した背景と狙いについて、わかりやすく解説します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 竹吉 俊輔</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 竹吉 俊輔</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2038,30 +2138,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17:00-17:40</t>
+          <t>3F シリウス</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3F シリウス</t>
+          <t>AIを賢く活用してメインフレーム・モダナイゼーションを実現しませんか。より身近になったAI技術はこれからの我々の働き方に様々な選択肢を与え、スキル育成や生産性向上の観点で大きな影響を与えます。今まで以上にモダナイゼーションを加速させるために、今話題のメインフレーム・アプリケーション開発に生成AIを活用できる「IBM watsonx Code Assistant for Z」を中心に、デモを交えてご紹介します。</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AIを賢く活用してメインフレーム・モダナイゼーションを実現しませんか。より身近になったAI技術はこれからの我々の働き方に様々な選択肢を与え、スキル育成や生産性向上の観点で大きな影響を与えます。今まで以上にモダナイゼーションを加速させるために、今話題のメインフレーム・アプリケーション開発に生成AIを活用できる「IBM watsonx Code Assistant for Z」を中心に、デモを交えてご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 寺村 美千賀, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 三上 鉉人</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 寺村 美千賀, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Mainframeテクニカル・スペシャリスト 三上 鉉人</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2085,30 +2190,35 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>3F オリオン</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3F オリオン</t>
+          <t>プロンプトによる生成AI活用からRetrieval-Augmented Generation(RAG)を用いた知識探索、モデル改善を目指すファイン・チューニング等、watsonxを利用してみたいお客様必見です。そもそもwatsonxとアプリケーションを繋げるために、どんなIBM Cloud構成が取れるかを解説します。なるべく安価な構成にするには、セキュアな通信を保つには、安定稼働を実現するには、など様々な構成を一挙にご紹介します。</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>プロンプトによる生成AI活用からRetrieval-Augmented Generation(RAG)を用いた知識探索、モデル改善を目指すファイン・チューニング等、watsonxを利用してみたいお客様必見です。そもそもwatsonxとアプリケーションを繋げるために、どんなIBM Cloud構成が取れるかを解説します。なるべく安価な構成にするには、セキュアな通信を保つには、安定稼働を実現するには、など様々な構成を一挙にご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部  Cloud Platformテクニカル・スペシャリスト 片岡 弘貴</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部  Cloud Platformテクニカル・スペシャリスト 片岡 弘貴</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2132,30 +2242,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13:00-13:40</t>
+          <t>3F オリオン</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3F オリオン</t>
+          <t>年初から業界を賑わせているBroadcom社によるVMwareライセンスポリシーの変更に伴い、現行VMware環境上で動くワークロードのあるべき姿に対して改めて検討をされている企業は多いと思われます。本セッションでは、IBM Cloudが提供する豊富な選択肢を改めて整理し、コスト・リスク・柔軟性の観点から今後のアーキテクチャーを描く上で役立つソリューションをご紹介します。</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>年初から業界を賑わせているBroadcom社によるVMwareライセンスポリシーの変更に伴い、現行VMware環境上で動くワークロードのあるべき姿に対して改めて検討をされている企業は多いと思われます。本セッションでは、IBM Cloudが提供する豊富な選択肢を改めて整理し、コスト・リスク・柔軟性の観点から今後のアーキテクチャーを描く上で役立つソリューションをご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部  Cloud Platformテクニカル・スペシャリスト 安田 忍, 日本アイ・ビー・エム株式会社 テクノロジー事業本部  Cloud Platformテクニカル・スペシャリスト 鶴田 萌花</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部  Cloud Platformテクニカル・スペシャリスト 安田 忍, 日本アイ・ビー・エム株式会社 テクノロジー事業本部  Cloud Platformテクニカル・スペシャリスト 鶴田 萌花</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2179,30 +2294,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>3F オリオン</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3F オリオン</t>
+          <t>量子技術は企業に計り知れないほど大きな利益をもたらすポテンシャルを秘めており、社会に大きな影響を及ぼすと考えられています。その反面、現在のセキュリティー対策の根幹を支えている暗号技術に影響を及ぼす可能性があると言われています。このセッションでは、国内外の先行事例をもとに、企業が取るべき耐量子コンピューティング戦略とセキュリティー対策の勘所に関してご説明します。</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>量子技術は企業に計り知れないほど大きな利益をもたらすポテンシャルを秘めており、社会に大きな影響を及ぼすと考えられています。その反面、現在のセキュリティー対策の根幹を支えている暗号技術に影響を及ぼす可能性があると言われています。このセッションでは、国内外の先行事例をもとに、企業が取るべき耐量子コンピューティング戦略とセキュリティー対策の勘所に関してご説明します。</t>
+          <t>中級者</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>中級者</t>
+          <t>日本アイ・ビー・エム株式会社 コンサルティング事業本部 サイバーセキュリティー・サービス 技術理事 大西 克美, 日本アイ・ビー・エム株式会社 Strategy Consulting Partner 西林 泰如</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 コンサルティング事業本部 サイバーセキュリティー・サービス 技術理事 大西 克美, 日本アイ・ビー・エム株式会社 Strategy Consulting Partner 西林 泰如</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2226,30 +2346,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>3F オリオン</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3F オリオン</t>
+          <t>大規模言語モデルの登場や自然言語処理の進歩により、ビジネスにおける生成AIの活用が進んでおります。本セッションでは、データ・セキュリティーの観点から生成AI時代におけるセキュリティー課題を分析し、管理が必要となる項目を整理させていただきます。併せて最新のTechnologyでこの領域における課題をどのように解決していくのかをご説明します。</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>大規模言語モデルの登場や自然言語処理の進歩により、ビジネスにおける生成AIの活用が進んでおります。本セッションでは、データ・セキュリティーの観点から生成AI時代におけるセキュリティー課題を分析し、管理が必要となる項目を整理させていただきます。併せて最新のTechnologyでこの領域における課題をどのように解決していくのかをご説明します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 セキュリティー・テクニカル・スペシャリスト 吉田 剛, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 セキュリティー・テクニカル・スペシャリスト 清水 颯太</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 セキュリティー・テクニカル・スペシャリスト 吉田 剛, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 セキュリティー・テクニカル・スペシャリスト 清水 颯太</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2273,30 +2398,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>3F オリオン</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3F オリオン</t>
+          <t>本セッションでは、企業資産管理ソリューションの効果的な利用方法とこれまであった課題、特に現場の手間がかかり使いこなせない問題、そのギャップを埋める生成AIの活用方法を紹介します。具体的な生成AIの実例やEAM（企業資産管理）でのデータ管理・活用、APM（資産パフォーマンス管理）における生成AIのユースケースも取り上げます。ソリューションの効果的な活用と生成AIによる可能性について深く掘り下げるセッションです。</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>本セッションでは、企業資産管理ソリューションの効果的な利用方法とこれまであった課題、特に現場の手間がかかり使いこなせない問題、そのギャップを埋める生成AIの活用方法を紹介します。具体的な生成AIの実例やEAM（企業資産管理）でのデータ管理・活用、APM（資産パフォーマンス管理）における生成AIのユースケースも取り上げます。ソリューションの効果的な活用と生成AIによる可能性について深く掘り下げるセッションです。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Maximoエキスパート・ラボ デリバリー・コンサルタント 横山 智史, 日本アイ・ビー・エム株式会社 テクノロジー事業本部  クライアント・エンジニアリング  AI エンジニア 藤井 涼平, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 サステナビリティ・ソフトウェア テクニカル・スペシャリスト 今井 悠</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Maximoエキスパート・ラボ デリバリー・コンサルタント 横山 智史, 日本アイ・ビー・エム株式会社 テクノロジー事業本部  クライアント・エンジニアリング  AI エンジニア 藤井 涼平, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 サステナビリティ・ソフトウェア テクニカル・スペシャリスト 今井 悠</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2320,30 +2450,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:00-17:40</t>
+          <t>3F オリオン</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3F オリオン</t>
+          <t>このトラックではIBMのD&amp;Iに対しての取り組み、その中でもテクノロジーを用いた実例についてご紹介します。企業文化の変革や個人からできる取り組みを通じて、より豊かな職場環境を実現するための参考にと考えます。</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>このトラックではIBMのD&amp;Iに対しての取り組み、その中でもテクノロジーを用いた実例についてご紹介します。企業文化の変革や個人からできる取り組みを通じて、より豊かな職場環境を実現するための参考にと考えます。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>お客様講師</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2367,30 +2502,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>4F 飛鳥</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4F 飛鳥</t>
+          <t>目覚ましい発展を遂げている生成AIをはじめとするAI技術は、新しい動向や課題をもたらしています。また、IBMでは、弊社製品であるwatsonxとともにさまざまなビジネス・プロセスを支援、生産性を上げることに取り組んでいます。本セッションでは、AI領域における動向や課題について振り返り、IBMでの事例の傾向と、代表事例をいくつかデモを交えながらご紹介することで、近年のAIの課題に対する解決を支援します。</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>目覚ましい発展を遂げている生成AIをはじめとするAI技術は、新しい動向や課題をもたらしています。また、IBMでは、弊社製品であるwatsonxとともにさまざまなビジネス・プロセスを支援、生産性を上げることに取り組んでいます。本セッションでは、AI領域における動向や課題について振り返り、IBMでの事例の傾向と、代表事例をいくつかデモを交えながらご紹介することで、近年のAIの課題に対する解決を支援します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIデータ・サイエンティスト 岡田 拓也</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIデータ・サイエンティスト 岡田 拓也</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2414,30 +2554,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13:00-13:40（40分）</t>
+          <t>4F 飛鳥</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4F 飛鳥</t>
+          <t>大規模言語モデルのビジネス活用において、ドメイン固有の知識を持つモデルが不可欠です。しかし、そのためには多くの業務知識の学習データ整備が課題となっています。本セッションでは、IBMの最新技術「InstructLab」を紹介し、効率的な学習データ生成と、それを活用したモデルの微調整プロセスをデモを交えてご説明します。</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>大規模言語モデルのビジネス活用において、ドメイン固有の知識を持つモデルが不可欠です。しかし、そのためには多くの業務知識の学習データ整備が課題となっています。本セッションでは、IBMの最新技術「InstructLab」を紹介し、効率的な学習データ生成と、それを活用したモデルの微調整プロセスをデモを交えてご説明します。</t>
+          <t>初級者</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>初級者</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIデータ・サイエンティスト 頼 伊汝</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIデータ・サイエンティスト 頼 伊汝</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
+        <is>
+          <t>（40分）</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2461,30 +2606,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>4F 飛鳥</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4F 飛鳥</t>
+          <t>この講演では、Retrieval-Augmented Generation(RAG)について、その基礎から応用までを具体的な利用例を踏まえて幅広く解説します。さらに、RAGの性能を最大限に引き出すためのチューニング手法を紐解くことで、RAGの全貌に迫ります。</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>この講演では、Retrieval-Augmented Generation(RAG)について、その基礎から応用までを具体的な利用例を踏まえて幅広く解説します。さらに、RAGの性能を最大限に引き出すためのチューニング手法を紐解くことで、RAGの全貌に迫ります。</t>
+          <t>中級者</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>中級者</t>
+          <t>お客様講師, お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 丹羽 輝明</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>お客様講師, お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 丹羽 輝明</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2508,30 +2658,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>4F 飛鳥</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4F 飛鳥</t>
+          <t>AI事業者ガイドラインが発効され、企業のAIモデルやLLMプロンプトに対しての規制遵守や監査証跡への対応が必須になりつつあります。AIガバナンスをどう担保していくのか、生成AIで開発したサービスと連携して、ダッシュボードやメトリック・ツールでどうコントロールしていくのか、デモを交えてご覧いただきます。</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AI事業者ガイドラインが発効され、企業のAIモデルやLLMプロンプトに対しての規制遵守や監査証跡への対応が必須になりつつあります。AIガバナンスをどう担保していくのか、生成AIで開発したサービスと連携して、ダッシュボードやメトリック・ツールでどうコントロールしていくのか、デモを交えてご覧いただきます。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 坂本 康輔, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 西澤 賢吾</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 坂本 康輔, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 西澤 賢吾</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2555,30 +2710,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>4F 飛鳥</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4F 飛鳥</t>
+          <t>生成AIによる業務効率化の模索・実践が進んでいます。汎用ツールによる個人での業務改善だけでなく、業務に特化したツールの活用がさらなる生産性向上につながります。本セッションでは、顧客サービス、アプリケーション最新化、ビジネス・データ分析の各領域での対話型UIを使ったAIによる業務のサポート・自動化をデモを交えてご紹介します。</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>生成AIによる業務効率化の模索・実践が進んでいます。汎用ツールによる個人での業務改善だけでなく、業務に特化したツールの活用がさらなる生産性向上につながります。本セッションでは、顧客サービス、アプリケーション最新化、ビジネス・データ分析の各領域での対話型UIを使ったAIによる業務のサポート・自動化をデモを交えてご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 藤原 陽子, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 佐藤 三依, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 中山 涼, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 清水 和真</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 藤原 陽子, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 佐藤 三依, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 中山 涼, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 清水 和真</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2602,30 +2762,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:00-17:40</t>
+          <t>4F 飛鳥</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4F 飛鳥</t>
+          <t>このセッションでは、IBM ビジネス・パートナーであるEYストラテジー・アンド・コンサルティング株式会社と開発を進めている、対話型AIソリューションを活用した革新的な営業支援ソリューションをご紹介します。営業活動の効率化だけでなく売上向上のためのAI活用ユースケースです。対話型AIソリューションであるwatsonx Orchestrateの力を体感ください。</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>このセッションでは、IBM ビジネス・パートナーであるEYストラテジー・アンド・コンサルティング株式会社と開発を進めている、対話型AIソリューションを活用した革新的な営業支援ソリューションをご紹介します。営業活動の効率化だけでなく売上向上のためのAI活用ユースケースです。対話型AIソリューションであるwatsonx Orchestrateの力を体感ください。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 山ノ内 日菜子, お客様講師</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 山ノ内 日菜子, お客様講師</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2649,30 +2814,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>4F 孔雀</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4F 孔雀</t>
+          <t>膨大な時系列センサー・データが蓄積されるものづくりの現場ではその活用と成果が企業の競争力に直結すると考えられています。このセッションでは「実践！異常検知と故障予測」の著者である産業技術総合研究所の本田 智則 氏と東日本旅客鉄道の堀 恵治 氏に具体的なSPSS Modelerのデモを通じてすぐに取り組み可能な範囲と最新技術の連携により実現しうる展望についてお話を伺います。</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>膨大な時系列センサー・データが蓄積されるものづくりの現場ではその活用と成果が企業の競争力に直結すると考えられています。このセッションでは「実践！異常検知と故障予測」の著者である産業技術総合研究所の本田 智則 氏と東日本旅客鉄道の堀 恵治 氏に具体的なSPSS Modelerのデモを通じてすぐに取り組み可能な範囲と最新技術の連携により実現しうる展望についてお話を伺います。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師, お客様講師</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>お客様講師, お客様講師</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2696,30 +2866,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13:00-13:40</t>
+          <t>4F 孔雀</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4F 孔雀</t>
+          <t>統計調査の解析を起源にしているSPSSはヒトの行動予測に関する事例が数多く存在します。今回はイズミの落合 氏から流通業でID付きPOSデータを用いたマーケティングの自動化を、朝日生命の岸田 氏からはSFAデータを用いたB2B営業生産性を向上のためのお取り組みについて、それぞれデモンストレーションや生成AI活用の展望も交えながらお話を伺います。</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>統計調査の解析を起源にしているSPSSはヒトの行動予測に関する事例が数多く存在します。今回はイズミの落合 氏から流通業でID付きPOSデータを用いたマーケティングの自動化を、朝日生命の岸田 氏からはSFAデータを用いたB2B営業生産性を向上のためのお取り組みについて、それぞれデモンストレーションや生成AI活用の展望も交えながらお話を伺います。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師, お客様講師, お客様講師</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>お客様講師, お客様講師, お客様講師</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2743,30 +2918,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>4F 孔雀</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4F 孔雀</t>
+          <t>データのないAIはありません。生成AIの情報源として自社データを使う時でもデータストア・ソリューションの重要性は高まっています。当セッションではデータ・ストア機能だけでなく、IBMメインフレームを含む多様なデータソースを仮想統合でき、AI用データの準備もできるwatsonx.dataの概要と最新情報をお届けします。また、watsonx.dataと統合することで負荷をオフロードできるDb2やNetezzaファミリーの最新情報にも触れます。</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>データのないAIはありません。生成AIの情報源として自社データを使う時でもデータストア・ソリューションの重要性は高まっています。当セッションではデータ・ストア機能だけでなく、IBMメインフレームを含む多様なデータソースを仮想統合でき、AI用データの準備もできるwatsonx.dataの概要と最新情報をお届けします。また、watsonx.dataと統合することで負荷をオフロードできるDb2やNetezzaファミリーの最新情報にも触れます。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 國守 知成</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 國守 知成</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2790,30 +2970,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>4F 孔雀</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4F 孔雀</t>
+          <t>ビジネスのためのAIには、信頼できるデータとそれを支えるデータ基盤が必要です。クラウド上のデータやメインフレームを含む様々なデータを全社的に活用することも重要です。IBMのデータ・ファブリックとデータ・ガバナンスには生成AIが組み込まれています。データの意味づけと検索処理を強化し、簡単なデータ入手を支援するSemantic Automationで、AI開発者・データ分析者の生産性を向上します。</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ビジネスのためのAIには、信頼できるデータとそれを支えるデータ基盤が必要です。クラウド上のデータやメインフレームを含む様々なデータを全社的に活用することも重要です。IBMのデータ・ファブリックとデータ・ガバナンスには生成AIが組み込まれています。データの意味づけと検索処理を強化し、簡単なデータ入手を支援するSemantic Automationで、AI開発者・データ分析者の生産性を向上します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 小澤 充明</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx事業部 Data&amp;AIテクニカル・スペシャリスト 小澤 充明</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2837,30 +3022,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>4F 孔雀</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4F 孔雀</t>
+          <t>NTTデータが提供する保険業界向けAIプラットフォーム「デジタル従業員」の企画背景と技術要素に加え、オーケストレーション基盤としてwatsonx Orchestrateを選定した理由、デジタル従業員が行動提案を行いながら保険業務を自動的に完結するプロセスの紹介、そしてエンタープライズ向けAIプラットフォームとしての技術的将来性についてご説明いたします。</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NTTデータが提供する保険業界向けAIプラットフォーム「デジタル従業員」の企画背景と技術要素に加え、オーケストレーション基盤としてwatsonx Orchestrateを選定した理由、デジタル従業員が行動提案を行いながら保険業務を自動的に完結するプロセスの紹介、そしてエンタープライズ向けAIプラットフォームとしての技術的将来性についてご説明いたします。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師, 日本アイ・ビー・エム株式会社 東京ラボラトリー ソフトウェア開発 プログラムディレクター 松井 彩, 日本アイ・ビー・エム株式会社 ストラテジック・アライアンス共創事業部 アドバイザリー・ソリューション・アーキテクト 本郷 元</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>お客様講師, 日本アイ・ビー・エム株式会社 東京ラボラトリー ソフトウェア開発 プログラムディレクター 松井 彩, 日本アイ・ビー・エム株式会社 ストラテジック・アライアンス共創事業部 アドバイザリー・ソリューション・アーキテクト 本郷 元</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2884,30 +3074,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17:00-17:40</t>
+          <t>4F 孔雀</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4F 孔雀</t>
+          <t>日立製作所ではお客様のシステムマイグレーション・ITモダナイゼーションを加速するソリューションを展開しております。このセッションでは、特に課題となる基幹系データベース基盤の移行に対して、LinuxONEと日立ストレージVSPを組合わせた高信頼性とコスト最適化を両立するOracle Databaseベストプラクティス構成と、それを実現するソリューションおよび検証結果をご紹介します。</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>日立製作所ではお客様のシステムマイグレーション・ITモダナイゼーションを加速するソリューションを展開しております。このセッションでは、特に課題となる基幹系データベース基盤の移行に対して、LinuxONEと日立ストレージVSPを組合わせた高信頼性とコスト最適化を両立するOracle Databaseベストプラクティス構成と、それを実現するソリューションおよび検証結果をご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>お客様講師</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2931,30 +3126,35 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12:00-12:40</t>
+          <t>4F 花苑</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4F 花苑</t>
+          <t>DXの推進には、柔軟性やスピードへの対応力のあるクラウド、アジャイルといったテクノロジー/手法の活用が求められます。本セッションでは、クラウド・コストの可視化を通じたクラウド利用の最適化、および開発リソースをビジネス上のメリットに合わせて調整し、プロジェクトやプロダクトの価値を最大化するための最適解をご紹介します。</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DXの推進には、柔軟性やスピードへの対応力のあるクラウド、アジャイルといったテクノロジー/手法の活用が求められます。本セッションでは、クラウド・コストの可視化を通じたクラウド利用の最適化、および開発リソースをビジネス上のメリットに合わせて調整し、プロジェクトやプロダクトの価値を最大化するための最適解をご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ソリューション コンサルタント 田中 友樹, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 インプリメンテーション コンサルタント 髙栁 雄太郎</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 ソリューション コンサルタント 田中 友樹, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 インプリメンテーション コンサルタント 髙栁 雄太郎</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -2978,30 +3178,35 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13:00-13:40</t>
+          <t>4F 花苑</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4F 花苑</t>
+          <t>クラウド技術活用とアプリケーション・モダナイズが進む一方で、管理対象の増加とアプリケーションの複雑化により、人手に頼ったIT運用には限界がきています。お客様アプリケーションのライフサイクルを理解し、生成AIが 運用ツールから上がるデータと組合せ、運用に対する洞察を提供することで、運用の効率を上げていくことができます。IBM内でも活用される IBM Concert についてご紹介します。</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>クラウド技術活用とアプリケーション・モダナイズが進む一方で、管理対象の増加とアプリケーションの複雑化により、人手に頼ったIT運用には限界がきています。お客様アプリケーションのライフサイクルを理解し、生成AIが 運用ツールから上がるデータと組合せ、運用に対する洞察を提供することで、運用の効率を上げていくことができます。IBM内でも活用される IBM Concert についてご紹介します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 岩品 友徳</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 岩品 友徳</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -3025,30 +3230,35 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14:00-14:40</t>
+          <t>4F 花苑</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4F 花苑</t>
+          <t>生成AIを活用したサービスが本番運用へ進む中、適切な監視と運用が重要です。このセッションでは、生成AIを活用したAI検索サービスを提供するIACTの西原 氏と、大規模言語モデルを活用したアプリの監視と最適化について話し合います。具体的な実践例として、IACTのAI検索サービスを取り上げ、アプリケーションのパフォーマンス向上と異常検知の方法を共有します。生成AIに携わるエンジニア必見の内容です。</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>生成AIを活用したサービスが本番運用へ進む中、適切な監視と運用が重要です。このセッションでは、生成AIを活用したAI検索サービスを提供するIACTの西原 氏と、大規模言語モデルを活用したアプリの監視と最適化について話し合います。具体的な実践例として、IACTのAI検索サービスを取り上げ、アプリケーションのパフォーマンス向上と異常検知の方法を共有します。生成AIに携わるエンジニア必見の内容です。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 平岡 大祐</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 平岡 大祐</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -3072,30 +3282,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15:00-15:40</t>
+          <t>4F 花苑</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4F 花苑</t>
+          <t>複雑化するIT運用環境で、膨大なイベントやログ、メトリクスから人手で障害の原因を分析することは手間も時間もかかります。本セッションではIBM SevOneとIBM Cloud Pak for AIOpsを組み合わせたネットワーク運用高度化について、検証事例を元に各製品が持つAI機能のご紹介とどのように根本原因分析が行えるかをご説明します。</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>複雑化するIT運用環境で、膨大なイベントやログ、メトリクスから人手で障害の原因を分析することは手間も時間もかかります。本セッションではIBM SevOneとIBM Cloud Pak for AIOpsを組み合わせたネットワーク運用高度化について、検証事例を元に各製品が持つAI機能のご紹介とどのように根本原因分析が行えるかをご説明します。</t>
+          <t>全員</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>全員</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 江田 幸弘, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 大濱 美月</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 江田 幸弘, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 大濱 美月</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -3119,30 +3334,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16:00-16:40</t>
+          <t>4F 花苑</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4F 花苑</t>
+          <t>AIを活用する上で、どのようにAIと既存システムを連携するのかは多くの企業に共通する課題となっています。また、企業に対して責任あるAI利用が求められる中で、AIサービスへのアクセスをいかに管理するのかといった視点も重要になってきています。本セッションでは、こうした課題に対処するために、非技術者でも簡単に実現できるシステム連携の方法とAI利用の管理手法について解説します。</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AIを活用する上で、どのようにAIと既存システムを連携するのかは多くの企業に共通する課題となっています。また、企業に対して責任あるAI利用が求められる中で、AIサービスへのアクセスをいかに管理するのかといった視点も重要になってきています。本セッションでは、こうした課題に対処するために、非技術者でも簡単に実現できるシステム連携の方法とAI利用の管理手法について解説します。</t>
+          <t>初級者</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>初級者</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 櫻谷 智貴, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 井出 ひなの</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 櫻谷 智貴, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 井出 ひなの</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -3166,30 +3386,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17:00-17:40</t>
+          <t>4F 花苑</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4F 花苑</t>
+          <t>現在もJavaは多くのお客様の業務システムの実装に利用されています。IBMの次世代ランタイムを活用したモダナイズにより、開発・運用コストを削減しながら、ビジネスの変化に迅速に対応できるクラウドネイティブなシステムへの移行が可能です。本セッションでは、コード生成などのAI技術を活用して、従来型のエンタープライズJava環境をいかに効率的にモダナイズできるかを、デモを通じてご紹介します。</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>現在もJavaは多くのお客様の業務システムの実装に利用されています。IBMの次世代ランタイムを活用したモダナイズにより、開発・運用コストを削減しながら、ビジネスの変化に迅速に対応できるクラウドネイティブなシステムへの移行が可能です。本セッションでは、コード生成などのAI技術を活用して、従来型のエンタープライズJava環境をいかに効率的にモダナイズできるかを、デモを通じてご紹介します。</t>
+          <t>初級者</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>初級者</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 田中 孝清, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 西尾 実優香</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 田中 孝清, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 西尾 実優香</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -3213,30 +3438,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12:00 - 13:40</t>
+          <t>4F 清風</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4F 清風</t>
+          <t>生成AIの回答精度を向上させるために、自社内のデータを活用しませんか。このハンズオンでは、ベクトル・データーベースを使ったRAGの基本を学びます。データとAIのためのオープンなデータレイクハウス watsonx.dataに含まれるベクトル・データベース Milvusを使って、生成AIで新しいデータ探索を体験してみましょう。</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>生成AIの回答精度を向上させるために、自社内のデータを活用しませんか。このハンズオンでは、ベクトル・データーベースを使ったRAGの基本を学びます。データとAIのためのオープンなデータレイクハウス watsonx.dataに含まれるベクトル・データベース Milvusを使って、生成AIで新しいデータ探索を体験してみましょう。</t>
+          <t>中級者</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>中級者</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx 事業部 Data&amp;AIテクニカル・スペシャリスト 西戸 京子</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx 事業部 Data&amp;AIテクニカル・スペシャリスト 西戸 京子</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -3260,30 +3490,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14:00-15:40</t>
+          <t>4F 清風</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4F 清風</t>
+          <t>日々の業務で、複数のシステムやツールを駆使する、面倒な作業はありませんか。また、業務の手順が覚えられない、システムの使い方がわからない、というお悩みもあるかと思います。watsonx Orchestrateは、そのような課題を解消できる「AIアシスタント」を簡単に作れるプラットフォームです。ハンズオンでは、IT技術の有無にかかわらず、皆さん自身でAIアシスタントを作り、動かせることをご体験いただきます。</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>日々の業務で、複数のシステムやツールを駆使する、面倒な作業はありませんか。また、業務の手順が覚えられない、システムの使い方がわからない、というお悩みもあるかと思います。watsonx Orchestrateは、そのような課題を解消できる「AIアシスタント」を簡単に作れるプラットフォームです。ハンズオンでは、IT技術の有無にかかわらず、皆さん自身でAIアシスタントを作り、動かせることをご体験いただきます。</t>
+          <t>初級者</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>初級者</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx 事業部 Data&amp;AIテクニカル・スペシャリスト 池田 香織</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx 事業部 Data&amp;AIテクニカル・スペシャリスト 池田 香織</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -3307,30 +3542,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>16:00-17:40</t>
+          <t>4F 清風</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4F 清風</t>
+          <t>多くの企業が生成AI・基盤モデルのビジネス活用を加速していく中、AIリスク管理の重要性も高まっています。watsonx.governanceは企業におけるAIライフサイクル管理を通して、信頼できるAIを実現するツールキットを提供します。本ハンズオンではwatsonx.governanceを用いたAIリスク管理の流れを体感いただけます。</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>多くの企業が生成AI・基盤モデルのビジネス活用を加速していく中、AIリスク管理の重要性も高まっています。watsonx.governanceは企業におけるAIライフサイクル管理を通して、信頼できるAIを実現するツールキットを提供します。本ハンズオンではwatsonx.governanceを用いたAIリスク管理の流れを体感いただけます。</t>
+          <t>中級者</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>中級者</t>
+          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx 事業部 Data&amp;AIテクニカル・スペシャリスト 高田 颯</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>日本アイ・ビー・エム株式会社 テクノロジー事業本部 watsonx 事業部 Data&amp;AIテクニカル・スペシャリスト 高田 颯</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>セッション</t>
         </is>
@@ -3771,7 +4011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3792,20 +4032,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>時間</t>
+          <t>タイトル</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>タイトル</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>開始時刻</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>終了時刻</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
@@ -3824,20 +4069,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:45-12:55</t>
+          <t>コンピューティングの未来を語ろう</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>コンピューティングの未来を語ろう</t>
+          <t>展示ブース「Meet IBM Research コンピューティングの未来を語ろう」でご案内している最先端テクノロジーの一端をご紹介します。（Meet IBM Research #2 と同じ内容になります。）</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>展示ブース「Meet IBM Research コンピューティングの未来を語ろう」でご案内している最先端テクノロジーの一端をご紹介します。（Meet IBM Research #2 と同じ内容になります。）</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>ミニシアター</t>
         </is>
@@ -3856,20 +4106,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:45-13:55</t>
+          <t>コンピューティングの未来を語ろう</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>コンピューティングの未来を語ろう</t>
+          <t>展示ブース「Meet IBM Research コンピューティングの未来を語ろう」でご案内している最先端テクノロジーの一端をご紹介します。（Meet IBM Research #1 と同じ内容になります。）</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>展示ブース「Meet IBM Research コンピューティングの未来を語ろう」でご案内している最先端テクノロジーの一端をご紹介します。（Meet IBM Research #1 と同じ内容になります。）</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>ミニシアター</t>
         </is>
@@ -3888,20 +4143,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45-14:55</t>
+          <t>watsonx.aiとVision Pro連携事例</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>watsonx.aiとVision Pro連携事例</t>
+          <t>このセッションは IBM watsonx.ai と Apple Vision Pro による空間コンピューティングの連携について具体的な手法をライブデモを交えてお伝えします。実践的な実装方法、参考になる注意点、試行錯誤のポイント、AI とデバイスの関係性で感じたことをお伝えします。</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>このセッションは IBM watsonx.ai と Apple Vision Pro による空間コンピューティングの連携について具体的な手法をライブデモを交えてお伝えします。実践的な実装方法、参考になる注意点、試行錯誤のポイント、AI とデバイスの関係性で感じたことをお伝えします。</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>ミニシアター</t>
         </is>
@@ -3920,20 +4180,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:45-15:55</t>
+          <t>Call for Code チャレンジ  watsonx.aiとTJBot zero  生成AIアシスタントをつくってみた</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Call for Code チャレンジ  watsonx.aiとTJBot zero  生成AIアシスタントをつくってみた</t>
+          <t>このセッションは、社会問題解決を目指すグローバル・ハッカソン「Call for Code」の2024年テーマ「生成AI」に対応したプロジェクトを紹介します。紙型AIロボット「TJBot Zero」（Raspberry Pi 搭載）を生成AIのフロントエンドとして活用した実践的な応用方法と魅力を解説します。</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>このセッションは、社会問題解決を目指すグローバル・ハッカソン「Call for Code」の2024年テーマ「生成AI」に対応したプロジェクトを紹介します。紙型AIロボット「TJBot Zero」（Raspberry Pi 搭載）を生成AIのフロントエンドとして活用した実践的な応用方法と魅力を解説します。</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>15:55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>ミニシアター</t>
         </is>
@@ -3952,20 +4217,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45-16:55</t>
+          <t>Watson Discoveryだから実現できた、業務で使えるAI活用</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Watson Discoveryだから実現できた、業務で使えるAI活用</t>
+          <t>業務で生成AIを利用する（=API利用)ためには、ユーザーの質問や指示に対する最適なドキュメントを検索によって抽出し、生成AIに渡す必要があります。ベクトルDBを勧める記事が多くありますが、精度が出にくいこともあります。一方、Watson Discoveryを使う私たちの製品は94%以上の評価を獲得しています。このセッションではデモを交え、Watson DiscoveryがRAGに向いている理由をお伝えします。</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>業務で生成AIを利用する（=API利用)ためには、ユーザーの質問や指示に対する最適なドキュメントを検索によって抽出し、生成AIに渡す必要があります。ベクトルDBを勧める記事が多くありますが、精度が出にくいこともあります。一方、Watson Discoveryを使う私たちの製品は94%以上の評価を獲得しています。このセッションではデモを交え、Watson DiscoveryがRAGに向いている理由をお伝えします。</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>ミニシアター</t>
         </is>

--- a/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
+++ b/techxchange/2024-watsonx-handson-1/data/TechXchangeJapan2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishito/Library/CloudStorage/Box-Box/2024Project/TechXchange/RAG_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16073074-D3D1-FC4A-B927-24D6FCEE9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BB486B-7CC9-F840-881A-0ACC2286445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="31620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="展示" sheetId="3" r:id="rId3"/>
     <sheet name="ミニシアター" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">セッション!$A$1:$J$48</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -796,18 +799,12 @@
     <t>4F 孔雀</t>
   </si>
   <si>
-    <t>膨大な時系列センサー・データが蓄積されるものづくりの現場ではその活用と成果が企業の競争力に直結すると考えられています。このセッションでは「実践！異常検知と故障予測」の著者である産業技術総合研究所の本田 智則 氏と東日本旅客鉄道の堀 恵治 氏に具体的なSPSS Modelerのデモを通じてすぐに取り組み可能な範囲と最新技術の連携により実現しうる展望についてお話を伺います。</t>
-  </si>
-  <si>
     <t>6-2</t>
   </si>
   <si>
     <t>マーケティング領域で活かされるSPSSの今とこれから</t>
   </si>
   <si>
-    <t>統計調査の解析を起源にしているSPSSはヒトの行動予測に関する事例が数多く存在します。今回はイズミの落合様から流通業でID付きPOSデータを用いたマーケティングの自動化を、朝日生命の岸田様と野澤様からはAI予測を活用した営業支援の取組みについて、それぞれデモンストレーションや生成AI活用の展望も交えながらお話を伺います。</t>
-  </si>
-  <si>
     <t>お客様講師, お客様講師, お客様講師</t>
   </si>
   <si>
@@ -889,9 +886,6 @@
     <t>生成AIの運用術 大規模言語モデルアプリ最適化の実践対談</t>
   </si>
   <si>
-    <t>生成AIを活用したサービスが本番運用へ進む中、適切な監視と運用が重要です。このセッションでは、生成AIを活用したAI検索サービスを提供するIACTの西原 氏と、大規模言語モデルを活用したアプリの監視と最適化について話し合います。具体的な実践例として、IACTのAI検索サービスを取り上げ、アプリケーションのパフォーマンス向上と異常検知の方法を共有します。生成AIに携わるエンジニア必見の内容です。</t>
-  </si>
-  <si>
     <t>お客様講師, 日本アイ・ビー・エム株式会社 テクノロジー事業本部 Automationテクニカル・スペシャリスト 平岡 大祐</t>
   </si>
   <si>
@@ -1193,6 +1187,33 @@
   </si>
   <si>
     <t>16:55</t>
+  </si>
+  <si>
+    <t>膨大な時系列センサー・データが蓄積されるものづくりの現場ではその活用と成果が企業の競争力に直結すると考えられています。このセッションでは「実践！異常検知と故障予測」の著者であるお客様講師の方に具体的なSPSS Modelerのデモを通じてすぐに取り組み可能な範囲と最新技術の連携により実現しうる展望についてお話を伺います。</t>
+    <rPh sb="94" eb="95">
+      <t xml:space="preserve">カタニ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生成AIを活用したサービスが本番運用へ進む中、適切な監視と運用が重要です。このセッションでは、生成AIを活用したAI検索サービスを提供するお客様講師と、大規模言語モデルを活用したアプリの監視と最適化について話し合います。具体的な実践例として、IACTのAI検索サービスを取り上げ、アプリケーションのパフォーマンス向上と異常検知の方法を共有します。生成AIに携わるエンジニア必見の内容です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>統計調査の解析を起源にしているSPSSはヒトの行動予測に関する事例が数多く存在します。今回はお客様講師の方から流通業でID付きPOSデータを用いたマーケティングの自動化を、別のお客様講師の方からはAI予測を活用した営業支援の取組みについて、それぞれデモンストレーションや生成AI活用の展望も交えながらお話を伺います。</t>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">コウシノ </t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t xml:space="preserve">ベツノ </t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1977,7 +1998,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3058,7 +3079,7 @@
         <v>245</v>
       </c>
       <c r="E34" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="F34" t="s">
         <v>118</v>
@@ -3078,25 +3099,25 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D35" t="s">
         <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="F35" t="s">
         <v>118</v>
       </c>
       <c r="G35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H35" t="s">
         <v>106</v>
@@ -3110,25 +3131,25 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s">
         <v>245</v>
       </c>
       <c r="E36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F36" t="s">
         <v>118</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H36" t="s">
         <v>114</v>
@@ -3142,25 +3163,25 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
         <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
         <v>118</v>
       </c>
       <c r="G37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H37" t="s">
         <v>120</v>
@@ -3174,25 +3195,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D38" t="s">
         <v>245</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F38" t="s">
         <v>118</v>
       </c>
       <c r="G38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H38" t="s">
         <v>127</v>
@@ -3206,19 +3227,19 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D39" t="s">
         <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F39" t="s">
         <v>118</v>
@@ -3238,25 +3259,25 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
       </c>
       <c r="C40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" t="s">
         <v>267</v>
-      </c>
-      <c r="D40" t="s">
-        <v>268</v>
-      </c>
-      <c r="E40" t="s">
-        <v>269</v>
       </c>
       <c r="F40" t="s">
         <v>118</v>
       </c>
       <c r="G40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H40" t="s">
         <v>99</v>
@@ -3270,25 +3291,25 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F41" t="s">
         <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H41" t="s">
         <v>106</v>
@@ -3302,25 +3323,25 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>377</v>
       </c>
       <c r="F42" t="s">
         <v>118</v>
       </c>
       <c r="G42" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H42" t="s">
         <v>114</v>
@@ -3334,25 +3355,25 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s">
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E43" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F43" t="s">
         <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H43" t="s">
         <v>120</v>
@@ -3366,25 +3387,25 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
         <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E44" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F44" t="s">
         <v>225</v>
       </c>
       <c r="G44" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H44" t="s">
         <v>127</v>
@@ -3398,25 +3419,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E45" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F45" t="s">
         <v>225</v>
       </c>
       <c r="G45" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H45" t="s">
         <v>133</v>
@@ -3430,25 +3451,25 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
         <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F46" t="s">
         <v>112</v>
       </c>
       <c r="G46" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H46" t="s">
         <v>99</v>
@@ -3462,25 +3483,25 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s">
         <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D47" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F47" t="s">
         <v>225</v>
       </c>
       <c r="G47" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H47" t="s">
         <v>114</v>
@@ -3494,25 +3515,25 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B48" t="s">
         <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F48" t="s">
         <v>112</v>
       </c>
       <c r="G48" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H48" t="s">
         <v>127</v>
@@ -3534,7 +3555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -3562,16 +3585,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -3579,16 +3602,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -3596,16 +3619,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -3613,16 +3636,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -3630,16 +3653,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -3647,16 +3670,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -3664,16 +3687,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -3681,16 +3704,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -3698,16 +3721,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -3715,16 +3738,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" t="s">
         <v>331</v>
-      </c>
-      <c r="B11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" t="s">
-        <v>334</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -3732,16 +3755,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -3749,16 +3772,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" t="s">
         <v>338</v>
-      </c>
-      <c r="B13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C13" t="s">
-        <v>340</v>
-      </c>
-      <c r="D13" t="s">
-        <v>341</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -3766,16 +3789,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" t="s">
         <v>342</v>
-      </c>
-      <c r="B14" t="s">
-        <v>343</v>
-      </c>
-      <c r="C14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D14" t="s">
-        <v>345</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -3783,16 +3806,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" t="s">
         <v>346</v>
-      </c>
-      <c r="B15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C15" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" t="s">
-        <v>349</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -3809,7 +3832,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3844,117 +3867,117 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" t="s">
         <v>350</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>351</v>
       </c>
-      <c r="C2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>352</v>
-      </c>
-      <c r="E2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
         <v>356</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>357</v>
       </c>
-      <c r="C3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F3" t="s">
-        <v>360</v>
-      </c>
       <c r="G3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" t="s">
         <v>361</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>362</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>363</v>
       </c>
-      <c r="D4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F4" t="s">
-        <v>366</v>
-      </c>
       <c r="G4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" t="s">
         <v>367</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>368</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>369</v>
       </c>
-      <c r="D5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F5" t="s">
-        <v>372</v>
-      </c>
       <c r="G5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" t="s">
         <v>373</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>374</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>375</v>
       </c>
-      <c r="D6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F6" t="s">
-        <v>378</v>
-      </c>
       <c r="G6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
